--- a/content/species/data/sp_birds_tbl_3.xlsx
+++ b/content/species/data/sp_birds_tbl_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F85BE-C4A6-4242-8D74-12D41C197FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDBE7CE-977D-4C49-A110-40403923667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31545" yWindow="2790" windowWidth="13830" windowHeight="12390" xr2:uid="{959724E2-CA03-4FA1-920A-CDDA2E8D02CF}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{959724E2-CA03-4FA1-920A-CDDA2E8D02CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Current Interventions</t>
   </si>
   <si>
-    <t>[*Botha's Lark*] (https://www.birdlife.org.za/red-list/bothas-lark/)</t>
-  </si>
-  <si>
     <t>CR</t>
   </si>
   <si>
@@ -62,51 +59,33 @@
     <t>Stewardship and landowner engagement (BLSA, EWT)</t>
   </si>
   <si>
-    <t>[*Blue Swallow*] (https://www.birdlife.org.za/red-list/blue-swallow/)</t>
-  </si>
-  <si>
     <t>Stewardship; artificial burrows; alien clearing</t>
   </si>
   <si>
     <t>Stewardship and monitoring (BLSA, Conservation Outcomes)</t>
   </si>
   <si>
-    <t>[*White-backed Vulture*] (https://www.birdlife.org.za/red-list/white-backed-vulture/)</t>
-  </si>
-  <si>
     <t>Landscape-level poisoning prevention; population supplementation</t>
   </si>
   <si>
     <t>EWT Vultures for Africa; BLSA lead ammo awareness</t>
   </si>
   <si>
-    <t>[*Lappet-faced Vulture*] (https://www.birdlife.org.za/red-list/lappet-faced-vulture/)</t>
-  </si>
-  <si>
     <t>EWT Vultures for Africa; poisoning intervention</t>
   </si>
   <si>
-    <t>[*Hooded Vulture*] (https://www.birdlife.org.za/red-list/lappet-faced-vulture/)</t>
-  </si>
-  <si>
     <t>Habitat protection; poisoning prevention</t>
   </si>
   <si>
     <t>EWT Vultures for Africa; habitat and poisoning response</t>
   </si>
   <si>
-    <t>[*Bearded Vulture*] (https://www.birdlife.org.za/red-list/bearded-vulture/)</t>
-  </si>
-  <si>
     <t>Captive breeding programme with egg harvesting; threat mitigation</t>
   </si>
   <si>
     <t>Bearded Vulture Task Force, Bred-for-the-Wild project</t>
   </si>
   <si>
-    <t>[*African Penguin*] (https://www.birdlife.org.za/red-list/african-penguin/)</t>
-  </si>
-  <si>
     <t>EN</t>
   </si>
   <si>
@@ -116,36 +95,21 @@
     <t>Colony management, BMP-S, new De Hoop colony, advocacy</t>
   </si>
   <si>
-    <t>[*Bank Cormorant*] (https://www.birdlife.org.za/red-list/bank-cormorant/)</t>
-  </si>
-  <si>
     <t>Research; colony stewardship</t>
   </si>
   <si>
     <t>Linked to African Penguin work</t>
   </si>
   <si>
-    <t>[*Cape Gannet*] (https://www.birdlife.org.za/red-list/cape-gannet/)</t>
-  </si>
-  <si>
     <t>Colony stewardship; foraging management</t>
   </si>
   <si>
-    <t>[*White-headed Vulture*] (https://www.birdlife.org.za/red-list/white-headed-vulture/)</t>
-  </si>
-  <si>
-    <t>[*Black Harrier*] (https://www.birdlife.org.za/red-list/black-harrier/)</t>
-  </si>
-  <si>
     <t>Collision mitigation at wind farms; habitat protection</t>
   </si>
   <si>
     <t>Research and advocacy on renewable energy impacts</t>
   </si>
   <si>
-    <t>[*Marion Island breeding spp*] (https://www.birdlife.org.za/?s=Marion+Island+breeding+spp&amp;id=323007&amp;post_type=red-list)</t>
-  </si>
-  <si>
     <t>Varies</t>
   </si>
   <si>
@@ -153,6 +117,42 @@
   </si>
   <si>
     <t>Mouse-Free Marion Project (BLSA, DFFE)</t>
+  </si>
+  <si>
+    <t>[Botha's lark] (https://www.birdlife.org.za/red-list/bothas-lark/)</t>
+  </si>
+  <si>
+    <t>[Blue swallow] (https://www.birdlife.org.za/red-list/blue-swallow/)</t>
+  </si>
+  <si>
+    <t>[White-backed vulture] (https://www.birdlife.org.za/red-list/white-backed-vulture/)</t>
+  </si>
+  <si>
+    <t>[Lappet-faced vulture] (https://www.birdlife.org.za/red-list/lappet-faced-vulture/)</t>
+  </si>
+  <si>
+    <t>[Hooded vulture] (https://www.birdlife.org.za/red-list/lappet-faced-vulture/)</t>
+  </si>
+  <si>
+    <t>[Bearded vulture] (https://www.birdlife.org.za/red-list/bearded-vulture/)</t>
+  </si>
+  <si>
+    <t>[African penguin] (https://www.birdlife.org.za/red-list/african-penguin/)</t>
+  </si>
+  <si>
+    <t>[Cape gannet] (https://www.birdlife.org.za/red-list/cape-gannet/)</t>
+  </si>
+  <si>
+    <t>[Bank cormorant] (https://www.birdlife.org.za/red-list/bank-cormorant/)</t>
+  </si>
+  <si>
+    <t>[White-headed vulture] (https://www.birdlife.org.za/red-list/white-headed-vulture/)</t>
+  </si>
+  <si>
+    <t>[Black harrier] (https://www.birdlife.org.za/red-list/black-harrier/)</t>
+  </si>
+  <si>
+    <t>[Marion island breeding spp] (https://www.birdlife.org.za/?s=Marion+Island+breeding+spp&amp;id=323007&amp;post_type=red-list)</t>
   </si>
 </sst>
 </file>
@@ -604,18 +604,18 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="43.41796875" customWidth="1"/>
+    <col min="2" max="2" width="25.68359375" customWidth="1"/>
+    <col min="3" max="3" width="13.89453125" customWidth="1"/>
+    <col min="4" max="4" width="24.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,172 +629,172 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -803,6 +803,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de6781d5-cbdf-44cc-b8b1-919d4413b058">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a4ec884e7468e8b6decba7ff9ee350d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b02cf9d369237c4b82eaa1e33230624f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1074,29 +1096,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C39ACED-F9F4-42A1-BCD7-C57E3F98F92B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de6781d5-cbdf-44cc-b8b1-919d4413b058">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A74185-5F2A-4547-A72D-B46F9D01A694}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFB26D9-DD9F-44F8-8520-60CDBC4192BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1114,24 +1134,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A74185-5F2A-4547-A72D-B46F9D01A694}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C39ACED-F9F4-42A1-BCD7-C57E3F98F92B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>